--- a/config_debug/act_055_xhns_config.xlsx
+++ b/config_debug/act_055_xhns_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -61,9 +61,6 @@
     <t>tips</t>
   </si>
   <si>
-    <t>话费碎片</t>
-  </si>
-  <si>
     <t>金币</t>
   </si>
   <si>
@@ -214,217 +211,221 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200~500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>~500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ty_icon_flq2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0万</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200~500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>~500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
+    <t>ty_icon_flq2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -826,10 +827,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -849,13 +850,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -872,16 +873,16 @@
         <v>1630943999</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -980,7 +981,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1039,13 +1040,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>5000</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1056,13 +1057,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>15000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1073,13 +1074,13 @@
         <v>100</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1090,13 +1091,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>50000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1107,13 +1108,13 @@
         <v>500</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1124,13 +1125,13 @@
         <v>1000</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1141,13 +1142,13 @@
         <v>3000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1158,13 +1159,13 @@
         <v>8000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1175,13 +1176,13 @@
         <v>15000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1192,13 +1193,13 @@
         <v>25000</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1267,6 +1268,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/act_055_xhns_config.xlsx
+++ b/config_debug/act_055_xhns_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>game_MineGame</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cpl_notcjj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -130,6 +126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -246,6 +243,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,6 +265,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -298,6 +297,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,6 +325,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,6 +347,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -384,6 +386,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,6 +408,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -426,6 +430,10 @@
   </si>
   <si>
     <t>ty_icon_flq2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_MiniGame</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -792,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -850,13 +858,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -873,16 +881,16 @@
         <v>1630943999</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -980,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1023,13 +1031,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1046,7 +1054,7 @@
         <v>5000</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1057,13 +1065,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>15000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1074,13 +1082,13 @@
         <v>100</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1111,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1128,10 +1136,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1145,10 +1153,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1162,10 +1170,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1179,10 +1187,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
